--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Parameter</t>
   </si>
@@ -31,51 +32,50 @@
     <t>Total number of marine bacteria and archaea</t>
   </si>
   <si>
+    <t>Cells</t>
+  </si>
+  <si>
     <t>Carbon content</t>
   </si>
   <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>fg C cell^-1</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
     <t>Fraction of archaea</t>
   </si>
   <si>
+    <t>Unitless</t>
+  </si>
+  <si>
     <t>Fraction of bacteria</t>
-  </si>
-  <si>
-    <t>Cells</t>
-  </si>
-  <si>
-    <t>fg C cell^-1</t>
-  </si>
-  <si>
-    <t>Unitless</t>
-  </si>
-  <si>
-    <t>1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,35 +90,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -406,12 +397,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -431,59 +428,59 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1.23183254521155e+29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>11.2</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Parameter</t>
   </si>
@@ -32,50 +31,60 @@
     <t>Total number of marine bacteria and archaea</t>
   </si>
   <si>
+    <t>Carbon content</t>
+  </si>
+  <si>
+    <t>Fraction of archaea</t>
+  </si>
+  <si>
+    <t>Fraction of bacteria</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
     <t>Cells</t>
   </si>
   <si>
-    <t>Carbon content</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
     <t>fg C cell^-1</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Fraction of archaea</t>
-  </si>
-  <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>Fraction of bacteria</t>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,26 +99,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -397,18 +415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -428,59 +440,59 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.23183254521155e+29</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11.2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.9</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.2</v>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Parameter</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Fraction of bacteria</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>Cells</t>
   </si>
   <si>
@@ -55,10 +49,7 @@
     <t>Unitless</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.3</t>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -444,10 +435,10 @@
         <v>1.23183254521155e+29</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1.5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,7 +449,7 @@
         <v>11.2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1.4</v>
@@ -468,28 +459,28 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>0.2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>0.8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Parameter</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Fraction of bacteria</t>
   </si>
   <si>
+    <t>Fraction of the total biomass of marine bacteria and archaea which is particle-attached</t>
+  </si>
+  <si>
     <t>Cells</t>
   </si>
   <si>
@@ -49,7 +52,7 @@
     <t>Unitless</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>4.3</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +438,10 @@
         <v>1.23183254521155e+29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,7 +452,7 @@
         <v>11.2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1.4</v>
@@ -463,7 +466,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2.2</v>
@@ -477,10 +480,24 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.228292471424377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Parameter</t>
   </si>
@@ -31,54 +32,50 @@
     <t>Total number of marine bacteria and archaea</t>
   </si>
   <si>
+    <t>Cells</t>
+  </si>
+  <si>
     <t>Carbon content</t>
   </si>
   <si>
+    <t>fg C cell^-1</t>
+  </si>
+  <si>
     <t>Fraction of archaea</t>
   </si>
   <si>
+    <t>Unitless</t>
+  </si>
+  <si>
     <t>Fraction of bacteria</t>
   </si>
   <si>
     <t>Fraction of the total biomass of marine bacteria and archaea which is particle-attached</t>
   </si>
   <si>
-    <t>Cells</t>
-  </si>
-  <si>
-    <t>fg C cell^-1</t>
-  </si>
-  <si>
-    <t>Unitless</t>
-  </si>
-  <si>
-    <t>4.3</t>
+    <t>4.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,35 +90,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -409,12 +397,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -434,73 +428,73 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1.23183254521155e+29</v>
+      <c r="B2" t="n">
+        <v>1.231832545211552e+29</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
         <v>11.2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>2.2</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.228292471424377</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2282924714243768</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Parameter</t>
   </si>
@@ -32,50 +31,63 @@
     <t>Total number of marine bacteria and archaea</t>
   </si>
   <si>
+    <t>Carbon content</t>
+  </si>
+  <si>
+    <t>Fraction of archaea</t>
+  </si>
+  <si>
+    <t>Fraction of bacteria</t>
+  </si>
+  <si>
+    <t>Fraction of the total biomass of marine bacteria and archaea which is particle-attached</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
     <t>Cells</t>
   </si>
   <si>
-    <t>Carbon content</t>
-  </si>
-  <si>
     <t>fg C cell^-1</t>
   </si>
   <si>
-    <t>Fraction of archaea</t>
-  </si>
-  <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>Fraction of bacteria</t>
-  </si>
-  <si>
-    <t>Fraction of the total biomass of marine bacteria and archaea which is particle-attached</t>
-  </si>
-  <si>
-    <t>4.4</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,26 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -397,18 +418,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -428,73 +443,73 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.231832545211552e+29</v>
+      <c r="B2">
+        <v>1.23183254521155e+29</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>11.2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.3</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.8</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.3</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2282924714243768</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.204066063601076</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Fraction of the total biomass of marine bacteria and archaea which is particle-attached</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>Cells</t>
   </si>
   <si>
@@ -58,10 +52,7 @@
     <t>Unitless</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
+    <t>4.4</t>
   </si>
 </sst>
 </file>
@@ -447,7 +438,7 @@
         <v>1.23183254521155e+29</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1.5</v>
@@ -461,7 +452,7 @@
         <v>11.2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1.4</v>
@@ -471,28 +462,28 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>0.2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>0.8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -503,10 +494,10 @@
         <v>0.204066063601076</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>4.4</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.204066063601076</v>
+        <v>0.2022358377193267</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>

--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2022358377193267</v>
+        <v>0.202235837719327</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>

--- a/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
+++ b/bacteria_archaea/marine/marine_prok_biomass_estimate.xlsx
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.23183254521155e+29</v>
+        <v>1.231832545211552e+29</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.202235837719327</v>
+        <v>0.2022358377193267</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
